--- a/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
+++ b/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -469,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +563,41 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
+++ b/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,14 +522,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -541,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,14 +585,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
+++ b/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,285 @@
       </c>
       <c r="B5" t="n">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.430477320517348</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.06349223320934</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.297671922895853</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.60941676904407</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.949763952242836</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.73546236326942</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.196165905846138</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.65030016749218</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.760601610685226</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.25115681736938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.040091273076595</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.81360685586347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.273955995323031</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.53357464564397</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.734622742387433</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.47109532425234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.77690768876137</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.97224279968859</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.40767688433109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.39047815394726</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.21229317934238</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.15701349280493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.53337799524481</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.88995581183458</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.50982215380313</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.86666914735974</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.10397415451134</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32.13135517119309</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12.16877628502916</v>
+      </c>
+      <c r="D16" t="n">
+        <v>32.88743008834182</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.1429547458868</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32.92590386824508</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13.82442229443961</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33.74254704639247</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
+++ b/po_analysis_by_asin/B08W8G5CCC_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>13</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.430477320517348</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.06349223320934</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.297671922895853</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.60941676904407</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.949763952242836</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.73546236326942</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.196165905846138</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.65030016749218</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>17</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.760601610685226</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.25115681736938</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.040091273076595</v>
-      </c>
-      <c r="D7" t="n">
-        <v>26.81360685586347</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>18</v>
       </c>
-      <c r="C8" t="n">
-        <v>7.273955995323031</v>
-      </c>
-      <c r="D8" t="n">
-        <v>27.53357464564397</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
-        <v>8.734622742387433</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.47109532425234</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>20</v>
       </c>
-      <c r="C10" t="n">
-        <v>10.77690768876137</v>
-      </c>
-      <c r="D10" t="n">
-        <v>28.97224279968859</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
-        <v>10.40767688433109</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.39047815394726</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>21</v>
       </c>
-      <c r="C12" t="n">
-        <v>11.21229317934238</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.15701349280493</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>21</v>
       </c>
-      <c r="C13" t="n">
-        <v>11.53337799524481</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30.88995581183458</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>22</v>
       </c>
-      <c r="C14" t="n">
-        <v>11.50982215380313</v>
-      </c>
-      <c r="D14" t="n">
-        <v>31.86666914735974</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
-        <v>12.10397415451134</v>
-      </c>
-      <c r="D15" t="n">
-        <v>32.13135517119309</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>23</v>
       </c>
-      <c r="C16" t="n">
-        <v>12.16877628502916</v>
-      </c>
-      <c r="D16" t="n">
-        <v>32.88743008834182</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -844,12 +744,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>12.1429547458868</v>
-      </c>
-      <c r="D17" t="n">
-        <v>32.92590386824508</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -857,12 +751,6 @@
       </c>
       <c r="B18" t="n">
         <v>24</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13.82442229443961</v>
-      </c>
-      <c r="D18" t="n">
-        <v>33.74254704639247</v>
       </c>
     </row>
   </sheetData>
